--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1967112.236009266</v>
+        <v>1970420.072898298</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13.00576294050473</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.18454619735122</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>46.38724422570588</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>46.38724422570589</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1.170977004479167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>50.46697834767995</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>214.9010874418347</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +975,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>1.976154520889577</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>118.8327495751617</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,16 +1069,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>185.0333587736945</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>157.8312622797873</v>
+        <v>236.634544917884</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="D10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,52 +1382,52 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>230.8744955960827</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V12" t="n">
-        <v>47.64584584692143</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
@@ -1616,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1649,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>88.89269917859711</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>50.05769526855308</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>9.894394903258235</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.4031921034047</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>238.9286280708251</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,17 +2315,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.59506498882089</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,31 +2631,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>43.24488262422811</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>181.2921930499176</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>88.12692860372137</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>142.0207091502683</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -3026,70 +3026,70 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>12.04606782006204</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3226,13 +3226,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>44.30348359856706</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
+        <v>1.809496073036132</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F35" t="n">
-        <v>62.4162677022923</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,13 +3354,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>14.27668065735308</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>90.08131101346696</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,19 +3582,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>13.63001379239696</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,76 +3658,76 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,17 +3746,17 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.9840241829037</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>16.16726461546785</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3910,49 +3910,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>50.46697834767983</v>
       </c>
       <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4062,16 +4062,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>50.16678928893436</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>90.78668401116074</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4113,13 +4113,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92.8068625444412</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="C2" t="n">
-        <v>92.8068625444412</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="D2" t="n">
-        <v>92.8068625444412</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="E2" t="n">
-        <v>92.8068625444412</v>
+        <v>124.457110779899</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4334,16 +4334,16 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>57.25840604064623</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>110.2358097604965</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
@@ -4373,7 +4373,7 @@
         <v>159.9970564337892</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="M3" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
-      </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,10 +4431,10 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="S3" t="n">
-        <v>113.1412541856014</v>
+        <v>167.1943137916113</v>
       </c>
       <c r="T3" t="n">
         <v>113.1412541856014</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>136.0643627756056</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>134.8815577205762</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4513,25 +4513,25 @@
         <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="C5" t="n">
-        <v>761.6974622895962</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>521.6360070197613</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>278.1872303756613</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>812.6742080953335</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X5" t="n">
-        <v>761.6974622895962</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>521.6360070197613</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>790.6398109613051</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="C6" t="n">
-        <v>790.6398109613051</v>
+        <v>271.5684755889637</v>
       </c>
       <c r="D6" t="n">
-        <v>641.7054013000538</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E6" t="n">
-        <v>482.4679462945983</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4647,19 +4647,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>790.6398109613051</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X6" t="n">
-        <v>790.6398109613051</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y6" t="n">
-        <v>790.6398109613051</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D8" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E8" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F8" t="n">
-        <v>315.6850394389064</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>72.23626279480629</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X8" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4884,10 +4884,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
         <v>234.810827406191</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>341.255911560952</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4939,28 +4939,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5151,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V12" t="n">
-        <v>915.9300384935439</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W12" t="n">
-        <v>672.4812618494437</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X12" t="n">
-        <v>464.6297616439109</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>256.869462878957</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>223.7040404982626</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5364,13 +5364,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>599.6796762832846</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>599.6796762832846</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>599.6796762832846</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>599.6796762832846</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X15" t="n">
-        <v>599.6796762832846</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y15" t="n">
-        <v>391.9193775183306</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
         <v>41.77557929797318</v>
@@ -5452,34 +5452,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>259.0600686093459</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>120.3292431919614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>259.0600686093459</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>259.0600686093459</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>259.0600686093459</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y18" t="n">
-        <v>259.0600686093459</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="19">
@@ -5692,22 +5692,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5732,10 +5732,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.4883050441255</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5868,13 +5868,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>720.6083788665362</v>
+        <v>722.7151069542472</v>
       </c>
       <c r="X21" t="n">
-        <v>512.7568786610034</v>
+        <v>514.8636067487143</v>
       </c>
       <c r="Y21" t="n">
-        <v>304.9965798960495</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6069,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>924.0621403704131</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>924.0621403704131</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>924.0621403704131</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>924.0621403704131</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>924.0621403704131</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>680.6133637263131</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>472.7618635207803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>472.7618635207803</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>82.32787816303323</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>612.718391167419</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="C27" t="n">
-        <v>612.718391167419</v>
+        <v>63.71697538343088</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>63.71697538343088</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>63.71697538343088</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>63.71697538343088</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>63.71697538343088</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W27" t="n">
-        <v>780.9337281874871</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X27" t="n">
-        <v>780.9337281874871</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y27" t="n">
-        <v>780.9337281874871</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.6083788665362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C30" t="n">
-        <v>720.6083788665362</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>332.4649978087242</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6780,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>951.8894102378463</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>951.8894102378463</v>
       </c>
       <c r="T33" t="n">
-        <v>906.5653369884105</v>
+        <v>951.8894102378463</v>
       </c>
       <c r="U33" t="n">
-        <v>678.3417187247995</v>
+        <v>951.8894102378463</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>951.8894102378463</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>708.4406335937462</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>708.4406335937462</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>500.6803348287922</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>961.308225475175</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>874.2758585542716</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E35" t="n">
-        <v>82.32787816303323</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6959,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>325.7766548071333</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>172.4328580804791</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>33.70203266309463</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,19 +7017,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W36" t="n">
-        <v>660.701031422288</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>318.9674160535941</v>
       </c>
     </row>
     <row r="37">
@@ -7111,25 +7111,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.0683498528888</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C39" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>319.0683498528888</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="40">
@@ -7375,7 +7375,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E41" t="n">
         <v>506.1786963984129</v>
@@ -7400,7 +7400,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>554.1102621044483</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>379.6572328233214</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>220.4197778178658</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>220.4197778178658</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>220.4197778178658</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>846.5570557448675</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>603.1082791007675</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X42" t="n">
-        <v>395.2567788952347</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
         <v>19.28114311021272</v>
@@ -7600,19 +7600,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7667,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="C45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="D45" t="n">
-        <v>555.4877027295624</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="E45" t="n">
-        <v>396.2502477241069</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>249.7156897509919</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>110.9848643336074</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7749,28 +7749,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U45" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V45" t="n">
-        <v>555.4877027295624</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W45" t="n">
-        <v>555.4877027295624</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X45" t="n">
-        <v>555.4877027295624</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y45" t="n">
-        <v>555.4877027295624</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="46">
@@ -7982,19 +7982,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,19 +8061,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8295,22 +8295,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N15" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,22 +9243,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>382.1386950879875</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9492,13 +9492,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>312.5053919605859</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,22 +9957,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10680,7 +10680,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,22 +11376,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23258,7 +23258,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>108.6003065196844</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,10 +23303,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23315,7 +23315,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23346,7 +23346,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23355,10 +23355,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23391,10 +23391,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V12" t="n">
-        <v>185.1547413025039</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
@@ -23504,19 +23504,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,13 +23619,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>111.2720295162245</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23634,10 +23634,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>122.6508037197626</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23823,16 +23823,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3410493332382</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23932,7 +23932,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23944,13 +23944,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,13 +23972,13 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.12999154646259</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24063,13 +24063,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24108,7 +24108,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>12.76635509009446</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,13 +24221,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24294,10 +24294,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,25 +24330,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>60.56276916382224</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>64.75056867910476</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24382,7 +24382,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
         <v>93.35918011667277</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24488,28 +24488,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>323.8216709537613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,31 +24519,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>68.99056161226835</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,10 +24582,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>70.40279011100196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>78.40625504614597</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>5.424356414370408</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,10 +24813,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>292.2667739183906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24962,7 +24962,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24974,10 +24974,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>88.11176633258108</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>143.2478283578182</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25059,7 +25059,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25114,13 +25114,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25135,7 +25135,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>380.1208739992256</v>
       </c>
       <c r="F35" t="n">
-        <v>344.4597780394191</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,7 +25199,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,10 +25217,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,13 +25242,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>97.95876357914338</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>115.6916741900105</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25369,10 +25369,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,31 +25388,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>139.1387058269376</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,19 +25470,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>56.38340022020472</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>144.015066663004</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25530,13 +25530,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25634,16 +25634,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25682,13 +25682,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>3.25142005359281</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,25 +25752,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>216.6333225339574</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>332.2668633158007</v>
       </c>
       <c r="C44" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,10 +25907,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25950,16 +25950,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>107.4782911664666</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>21.44876022533572</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26001,13 +26001,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332321.3450626649</v>
+        <v>332321.345062665</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332321.345062665</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.345062665</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332321.3450626649</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="G2" t="n">
         <v>249241.0087969986</v>
@@ -26332,7 +26332,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="I2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="J2" t="n">
         <v>249241.0087969986</v>
@@ -26341,16 +26341,16 @@
         <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
+        <v>249241.0087969985</v>
+      </c>
+      <c r="M2" t="n">
         <v>249241.0087969986</v>
-      </c>
-      <c r="M2" t="n">
-        <v>249241.0087969985</v>
       </c>
       <c r="N2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="O2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="P2" t="n">
         <v>249241.0087969986</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>329956.5536505856</v>
+        <v>329658.5476262335</v>
       </c>
       <c r="C4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279533.6333046067</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
-        <v>588.1056701472497</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="L4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="M4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>588.1056701472498</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231010.3327244204</v>
+        <v>231308.3387487724</v>
       </c>
       <c r="C6" t="n">
-        <v>227390.1031431759</v>
+        <v>227798.6763156194</v>
       </c>
       <c r="D6" t="n">
-        <v>287966.4253298441</v>
+        <v>288374.9985022875</v>
       </c>
       <c r="E6" t="n">
-        <v>233999.2343630897</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="F6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.807535533</v>
       </c>
       <c r="G6" t="n">
-        <v>233999.2343630897</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="H6" t="n">
-        <v>233999.2343630897</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="I6" t="n">
-        <v>233999.2343630897</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="J6" t="n">
-        <v>219998.0022228103</v>
+        <v>220406.5753952536</v>
       </c>
       <c r="K6" t="n">
-        <v>185742.2814294571</v>
+        <v>186150.8546019003</v>
       </c>
       <c r="L6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="M6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="N6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="O6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.807535533</v>
       </c>
       <c r="P6" t="n">
-        <v>233999.2343630896</v>
+        <v>234407.8075355329</v>
       </c>
     </row>
   </sheetData>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369.7280787229759</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>346.7458238749106</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>53.77058992693726</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2959268781319</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>156.3915113515753</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,16 +27552,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>161.0561955029604</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9379459173085</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
         <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>170.5040690270225</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>277.2852801224549</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>171.3368512142189</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27695,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>145.4689110437492</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>26.23646281822221</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,16 +27789,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>221.8426869680169</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>298.998522982632</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,13 +27910,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27947,7 +27947,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>93.86372088113228</v>
+        <v>15.06043824303563</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>56.32934533914265</v>
       </c>
       <c r="D10" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570936</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,22 +35015,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35732,16 +35732,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>240.0046611659691</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36212,13 +36212,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>169.9091475161414</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36446,13 +36446,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36677,22 +36677,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37400,7 +37400,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N45" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1970420.072898298</v>
+        <v>1972743.744712165</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742179</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5253165.980408179</v>
+        <v>5253165.980408178</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35.18454619735122</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="G2" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>13.00576294050473</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.38724422570588</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>53.51252900994975</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,52 +837,52 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,17 +904,17 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -938,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>45.5495227460362</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>214.9010874418347</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1.976154520889577</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>185.0333587736945</v>
+        <v>79.10774947857098</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>236.634544917884</v>
+        <v>170.6554636898984</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1503,16 +1505,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>50.05769526855297</v>
+        <v>184.7545668083779</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1531,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1607,28 +1609,28 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>38.17946863125426</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1746,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>184.6308886574542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -1895,14 +1897,14 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1923,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>50.05769526855308</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>99.00280293268385</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="V20" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2175,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>98.10479885422592</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9286280708251</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2251,49 +2253,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2369,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2445,22 +2447,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>135.4141600157168</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>16.53524424398009</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>43.24488262422811</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,22 +2684,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>161.1908134018701</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2755,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2813,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="W29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>241.0142888776591</v>
@@ -2868,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>12.04606782006204</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3226,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.30348359856706</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E35" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3345,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>14.27668065735308</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,10 +3407,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3584,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3645,10 +3647,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>55.77504579759023</v>
       </c>
     </row>
     <row r="40">
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,67 +3742,67 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>108.9840241829037</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3882,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>91.10663889794492</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>50.46697834767983</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3992,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4062,10 +4064,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>50.16678928893436</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>76.78074799938825</v>
       </c>
     </row>
     <row r="46">
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="C2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="D2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="E2" t="n">
-        <v>124.457110779899</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
+        <v>85.86136179523773</v>
+      </c>
+      <c r="G2" t="n">
         <v>70.40405117388919</v>
       </c>
-      <c r="G2" t="n">
-        <v>16.35099156787933</v>
-      </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4334,13 +4336,13 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>214.050116039799</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
         <v>214.050116039799</v>
@@ -4364,16 +4366,16 @@
         <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="W2" t="n">
-        <v>159.9970564337892</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="Y2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
     </row>
     <row r="3">
@@ -4410,37 +4412,37 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>167.1943137916113</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
         <v>113.1412541856014</v>
@@ -4449,10 +4451,10 @@
         <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
+        <v>113.1412541856014</v>
+      </c>
+      <c r="Y3" t="n">
         <v>59.08819457959154</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>82.01130316959576</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>82.01130316959576</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>82.01130316959576</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>521.6360070197613</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C5" t="n">
-        <v>521.6360070197613</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D5" t="n">
-        <v>521.6360070197613</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1872303756613</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.6360070197613</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.0215048700907</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>271.5684755889637</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4647,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>446.0215048700907</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y6" t="n">
-        <v>446.0215048700907</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
         <v>41.77557929797318</v>
@@ -4741,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y8" t="n">
-        <v>477.1596022224361</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5002,10 +5004,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5066,25 +5068,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U11" t="n">
-        <v>749.627473042513</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V11" t="n">
-        <v>506.1786963984129</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
         <v>19.28114311021272</v>
@@ -5127,16 +5129,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363993</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5151,19 +5153,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>913.4938269565423</v>
+        <v>777.4363809567192</v>
       </c>
       <c r="V12" t="n">
-        <v>678.3417187247995</v>
+        <v>777.4363809567192</v>
       </c>
       <c r="W12" t="n">
-        <v>434.8929420806995</v>
+        <v>533.9876043126192</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>533.9876043126192</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I14" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>193.7341723913397</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5382,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W15" t="n">
-        <v>777.5613083818946</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X15" t="n">
-        <v>569.7098081763618</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y15" t="n">
-        <v>361.9495094114078</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5458,28 +5460,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5534,28 +5536,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
         <v>19.28114311021272</v>
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.84447166430675</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>560.6982001771528</v>
       </c>
       <c r="V18" t="n">
-        <v>728.9050472788936</v>
+        <v>560.6982001771528</v>
       </c>
       <c r="W18" t="n">
-        <v>485.4562706347935</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="X18" t="n">
-        <v>277.6047704292607</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="Y18" t="n">
-        <v>69.84447166430675</v>
+        <v>317.2494235330527</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>66.78106667958005</v>
       </c>
       <c r="S19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>307.1033079837604</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>864.9613990922262</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>636.7377808286153</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W21" t="n">
-        <v>722.7151069542472</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X21" t="n">
-        <v>514.8636067487143</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y21" t="n">
-        <v>307.1033079837604</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C23" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D23" t="n">
-        <v>710.516763498309</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>953.9655401424092</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="24">
@@ -6078,13 +6080,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
+        <v>613.2059550252818</v>
+      </c>
+      <c r="O24" t="n">
         <v>851.8101010141643</v>
       </c>
-      <c r="O24" t="n">
-        <v>964.0571555106362</v>
-      </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,19 +6095,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>63.71697538343088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>63.71697538343088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>63.71697538343088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>63.71697538343088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>63.71697538343088</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6332,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>446.0215048700907</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>238.1700046645579</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
         <v>19.28114311021272</v>
@@ -6546,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6637,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6725,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>956.199937296544</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>332.4649978087242</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>951.8894102378463</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>951.8894102378463</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>951.8894102378463</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>951.8894102378463</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>951.8894102378463</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>708.4406335937462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>708.4406335937462</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>500.6803348287922</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>961.308225475175</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>874.2758585542716</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>962.2293816994886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>318.9674160535941</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>318.9674160535941</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>318.9674160535941</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>318.9674160535941</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>172.4328580804791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>33.70203266309463</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,13 +7019,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>318.9674160535941</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>318.9674160535941</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y36" t="n">
-        <v>318.9674160535941</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="37">
@@ -7117,19 +7119,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C38" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7229,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>136.7812428759814</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X39" t="n">
-        <v>512.7568786610034</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y39" t="n">
-        <v>304.9965798960495</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7357,22 +7359,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W41" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X41" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="42">
@@ -7464,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>379.6572328233214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>379.6572328233214</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>220.4197778178658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>220.4197778178658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>220.4197778178658</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N42" t="n">
         <v>473.4149733950735</v>
@@ -7512,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U42" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V42" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W42" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X42" t="n">
-        <v>761.8705608694022</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y42" t="n">
-        <v>554.1102621044483</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.95466764448986</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C45" t="n">
-        <v>69.95466764448986</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D45" t="n">
-        <v>69.95466764448986</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7733,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M45" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7752,25 +7754,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V45" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W45" t="n">
-        <v>446.0215048700907</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X45" t="n">
-        <v>238.1700046645579</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y45" t="n">
-        <v>238.1700046645579</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7984,16 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -8067,16 +8069,16 @@
         <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>191.3321807117309</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8775,19 +8777,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>197.6503338623806</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9021,10 +9023,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,22 +9485,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9728,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10589,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>233.2169876979182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -10914,10 +10916,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>231.1529892133073</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11379,13 +11381,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M45" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23273,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>259.1400950999471</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23391,16 +23393,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>175.8836868124218</v>
+        <v>41.18681527259696</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>104.3119894196452</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23495,28 +23497,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>288.9757030627164</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23583,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>106.8897437621296</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23622,7 +23624,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23634,10 +23636,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>67.06409450346541</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23783,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23811,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>122.6508037197626</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>126.938579148291</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>93.46335274982394</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24063,7 +24065,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>73.5783722496119</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>12.76635509009446</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24181,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>118.5910057342293</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24257,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24333,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>64.75056867910476</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>216.2653429054452</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24421,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,7 +24496,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24508,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>68.99056161226835</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,22 +24572,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>64.75056867910467</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24613,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
         <v>162.2271725074396</v>
@@ -24643,13 +24645,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24737,10 +24739,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>105.4126421044364</v>
       </c>
       <c r="W29" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>128.71681180081</v>
@@ -24756,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78.40625504614597</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>88.9896173806811</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,10 +24879,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24935,10 +24937,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>201.2414235542941</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>88.11176633258108</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25114,16 +25116,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E35" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25233,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,13 +25244,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>97.95876357914338</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>141.1003479476514</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25451,13 +25453,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25472,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>56.38340022020472</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25533,10 +25535,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>149.9076499797141</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25673,10 +25675,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25685,10 +25687,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,13 +25724,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25142005359281</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25770,7 +25772,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>114.6663463055326</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>332.2668633158007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25950,10 +25952,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>107.4782911664666</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>128.9019477779161</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332321.3450626649</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332321.3450626649</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332321.345062665</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332321.3450626649</v>
+        <v>332321.3450626651</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982125</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982126</v>
-      </c>
       <c r="E2" t="n">
-        <v>249241.0087969986</v>
+        <v>249241.0087969985</v>
       </c>
       <c r="F2" t="n">
         <v>249241.0087969986</v>
@@ -26332,16 +26334,16 @@
         <v>249241.0087969986</v>
       </c>
       <c r="I2" t="n">
+        <v>249241.0087969986</v>
+      </c>
+      <c r="J2" t="n">
         <v>249241.0087969985</v>
-      </c>
-      <c r="J2" t="n">
-        <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
         <v>249241.0087969986</v>
       </c>
       <c r="L2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="M2" t="n">
         <v>249241.0087969986</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26421,7 +26423,7 @@
         <v>279125.0601321634</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="E4" t="n">
         <v>179.5324977039669</v>
@@ -26442,7 +26444,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="L4" t="n">
         <v>179.5324977039669</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231308.3387487724</v>
+        <v>231308.3387487723</v>
       </c>
       <c r="C6" t="n">
         <v>227798.6763156194</v>
@@ -26531,13 +26533,13 @@
         <v>234407.8075355329</v>
       </c>
       <c r="F6" t="n">
-        <v>234407.807535533</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="G6" t="n">
         <v>234407.8075355329</v>
       </c>
       <c r="H6" t="n">
-        <v>234407.8075355329</v>
+        <v>234407.807535533</v>
       </c>
       <c r="I6" t="n">
         <v>234407.8075355329</v>
@@ -26558,7 +26560,7 @@
         <v>234407.8075355329</v>
       </c>
       <c r="O6" t="n">
-        <v>234407.807535533</v>
+        <v>234407.8075355329</v>
       </c>
       <c r="P6" t="n">
         <v>234407.8075355329</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>346.7458238749106</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>361.7902085051853</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>356.7253377379643</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27503,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.77058992693726</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>186.4133429237194</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>152.1701667673546</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.3915113515753</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>113.7342920886781</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27557,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>129.2885653617898</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27585,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>170.5040690270225</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,31 +27660,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>205.7961301618003</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>171.3368512142189</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>145.4689110437492</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,10 +27757,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>160.484111070505</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27791,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>147.3903175997337</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>221.8426869680169</v>
+        <v>327.7682962631404</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27900,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27910,16 +27912,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>15.06043824303563</v>
+        <v>81.03951947102121</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>56.32934533914265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28035,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34702,16 +34704,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>55.51629994036225</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35741,10 +35743,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>91.0829537758999</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37552,7 +37554,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37792,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>99.81127712997396</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,13 +38101,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M45" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1972743.744712165</v>
+        <v>1903892.448270729</v>
       </c>
     </row>
     <row r="7">
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>53.51252900994975</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>13.00576294050473</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="Y3" t="n">
         <v>46.38724422570589</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -819,31 +819,31 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.892417739585685</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>26.16190956546853</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>45.5495227460362</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>7.623236342167999</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>45.28887413297245</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>79.10774947857098</v>
+        <v>117.573888884807</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.2888928983787</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>170.6554636898984</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>115.3160194297065</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>184.7545668083779</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>38.17946863125426</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="16">
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>99.00280293268385</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2046,13 +2046,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>234.288905720311</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.10479885422592</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
     </row>
     <row r="22">
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>16.53524424398009</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="27">
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>161.1908134018701</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
     </row>
     <row r="28">
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="T30" t="n">
-        <v>111.1751113141405</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,16 +3043,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3073,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>7.778646031951277</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Y32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3170,10 +3170,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>34.66067414728059</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3271,70 +3271,70 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>133.1326059558018</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,28 +3547,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>33.80371536444976</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>241.0142888776591</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>122.5899586056059</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>241.0142888776591</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>55.77504579759023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>208.5806719250808</v>
       </c>
       <c r="X42" t="n">
-        <v>91.10663889794492</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.175132255924895</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>76.78074799938825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4336,40 +4336,40 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>214.050116039799</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="V2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="W2" t="n">
-        <v>105.9439968277793</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="X2" t="n">
         <v>92.8068625444412</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
         <v>5.035134973581694</v>
@@ -4415,28 +4415,28 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
         <v>110.2358097604965</v>
       </c>
       <c r="N3" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>163.2132134803467</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
         <v>159.9970564337892</v>
@@ -4445,13 +4445,13 @@
         <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>113.1412541856014</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="Y3" t="n">
         <v>59.08819457959154</v>
@@ -4467,28 +4467,28 @@
         <v>84.76023320505688</v>
       </c>
       <c r="C4" t="n">
-        <v>30.70717359904702</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="D4" t="n">
-        <v>30.70717359904702</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="E4" t="n">
-        <v>30.70717359904702</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="F4" t="n">
-        <v>30.70717359904702</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>30.70717359904702</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>30.70717359904702</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4527,7 +4527,7 @@
         <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>138.8132928110667</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="X4" t="n">
         <v>84.76023320505688</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>513.1241971476163</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>513.1241971476163</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>513.1241971476163</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>513.1241971476163</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4600,19 +4600,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>756.5729737917163</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>756.5729737917163</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>513.1241971476163</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>513.1241971476163</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>513.1241971476163</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4655,13 +4655,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>525.9467038763287</v>
       </c>
       <c r="X6" t="n">
-        <v>817.1412885554689</v>
+        <v>318.0952036707959</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>358.0940480307835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>358.0940480307835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4898,10 +4898,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="O9" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>755.5251079843515</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>553.3385133431175</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>553.3385133431175</v>
       </c>
       <c r="V9" t="n">
-        <v>399.5118995681682</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>318.1864051113748</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="10">
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C11" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D11" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E11" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F11" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>100.4273118130612</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T11" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U11" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V11" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>343.8760884571613</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X11" t="n">
-        <v>100.4273118130612</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.0119685275972</v>
+        <v>339.4307355522512</v>
       </c>
       <c r="C12" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="D12" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="E12" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="F12" t="n">
-        <v>158.0119685275972</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5123,19 +5123,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5147,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U12" t="n">
-        <v>777.4363809567192</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V12" t="n">
-        <v>777.4363809567192</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W12" t="n">
-        <v>533.9876043126192</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X12" t="n">
-        <v>533.9876043126192</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y12" t="n">
-        <v>326.2273055476653</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>569.2254314512334</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C14" t="n">
-        <v>325.7766548071333</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D14" t="n">
-        <v>325.7766548071333</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="E14" t="n">
-        <v>231.8830517671884</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="F14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
         <v>19.28114311021272</v>
@@ -5305,25 +5305,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>812.6742080953335</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V14" t="n">
-        <v>812.6742080953335</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W14" t="n">
-        <v>812.6742080953335</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="X14" t="n">
-        <v>569.2254314512334</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.2254314512334</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>171.2153985321831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M15" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N15" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
         <v>894.6625969973069</v>
@@ -5384,25 +5384,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>547.1910343172051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X15" t="n">
-        <v>547.1910343172051</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y15" t="n">
-        <v>339.4307355522512</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5460,7 +5460,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
         <v>19.28114311021272</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="U17" t="n">
+        <v>752.9257720901863</v>
+      </c>
+      <c r="V17" t="n">
+        <v>509.4769954460863</v>
+      </c>
+      <c r="W17" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U17" t="n">
+      <c r="X17" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="V17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W17" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X17" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>560.6982001771528</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>560.6982001771528</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>317.2494235330527</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5694,22 +5694,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5779,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5834,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>864.9613990922262</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>864.9613990922262</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>636.7377808286153</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>401.5856725968725</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>401.5856725968725</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X21" t="n">
-        <v>193.7341723913397</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y21" t="n">
-        <v>193.7341723913397</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5943,16 +5943,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>485.167420504237</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>485.167420504237</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="25">
@@ -6168,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6265,13 +6265,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6308,46 +6308,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6405,10 +6405,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>742.8341567219593</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>274.7999090013961</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6569,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T30" t="n">
-        <v>678.3417187247995</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U30" t="n">
-        <v>678.3417187247995</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>956.199937296544</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>730.8505943024719</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>487.4018176583718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>243.9530410142718</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>243.9530410142718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,7 +6785,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
         <v>473.4149733950735</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>343.8760884571613</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C35" t="n">
-        <v>343.8760884571613</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>587.3248651012614</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>587.3248651012614</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>193.7341723913397</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y36" t="n">
-        <v>193.7341723913397</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X38" t="n">
-        <v>467.067986854209</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.6192102101089</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>860.4511411346975</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>840.2289144948727</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>840.2289144948727</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>612.0052962312618</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>376.8531879995192</v>
       </c>
       <c r="W39" t="n">
-        <v>243.8349102288568</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="X39" t="n">
-        <v>243.8349102288568</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="Y39" t="n">
-        <v>187.4964801302808</v>
+        <v>133.4044113554191</v>
       </c>
     </row>
     <row r="40">
@@ -7356,7 +7356,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
       </c>
-      <c r="D41" t="n">
+      <c r="G41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7411,7 +7411,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K41" t="n">
         <v>122.2961490211351</v>
@@ -7438,25 +7438,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U41" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V41" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>358.0940480307835</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>358.0940480307835</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U42" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V42" t="n">
-        <v>487.2836868729568</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W42" t="n">
-        <v>487.2836868729568</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="X42" t="n">
-        <v>395.2567788952347</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.4964801302808</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="43">
@@ -7602,7 +7602,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
         <v>19.28114311021272</v>
@@ -7630,16 +7630,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.8157010833278</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C45" t="n">
-        <v>165.8157010833278</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D45" t="n">
         <v>165.8157010833278</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>786.4225056522901</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="W45" t="n">
-        <v>619.4388494194218</v>
+        <v>314.750110744579</v>
       </c>
       <c r="X45" t="n">
-        <v>411.587349213889</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y45" t="n">
-        <v>334.0310381033958</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="46">
@@ -7791,7 +7791,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7984,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>281.6966398529821</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>195.6465629319681</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.3321807117309</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,16 +8303,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8546,13 +8546,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>185.4193833999402</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9011,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>241.9453110519923</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,13 +10667,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23269,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>259.1400950999471</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>57.39247955860921</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23387,13 +23387,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>41.18681527259696</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>104.3119894196452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>288.9757030627164</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>312.4655587480054</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23554,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>106.8897437621296</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="16">
@@ -23700,10 +23700,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,13 +23779,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23794,13 +23794,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23819,13 +23819,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>126.938579148291</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23934,13 +23934,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24019,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>93.46335274982394</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24098,10 +24098,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>73.5783722496119</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>135.0341266295844</v>
       </c>
     </row>
     <row r="22">
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>145.2236497783945</v>
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>216.2653429054452</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1127189901543</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="27">
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>64.75056867910467</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>88.98961738068117</v>
       </c>
     </row>
     <row r="28">
@@ -24645,13 +24645,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24685,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>105.4126421044364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24809,16 +24809,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>122.3720671615425</v>
       </c>
       <c r="T30" t="n">
-        <v>88.9896173806811</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>242.2195147380239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>201.2414235542941</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25058,10 +25058,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>171.1123110561969</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25177,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,16 +25198,16 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>24.51247449959911</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>141.1003479476514</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25411,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,28 +25435,28 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>145.2236497783945</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25487,13 +25487,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>49.09321249823194</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>10.68069428326055</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>149.9076499797141</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25596,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25769,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>43.11431123583884</v>
       </c>
       <c r="X42" t="n">
-        <v>114.6663463055326</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>195.9895964388967</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26009,10 +26009,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>128.9019477779161</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>332321.345062665</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>332321.3450626651</v>
+        <v>332321.3450626649</v>
       </c>
     </row>
     <row r="15">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="F2" t="n">
         <v>249241.0087969986</v>
@@ -26337,7 +26337,7 @@
         <v>249241.0087969986</v>
       </c>
       <c r="J2" t="n">
-        <v>249241.0087969985</v>
+        <v>249241.0087969986</v>
       </c>
       <c r="K2" t="n">
         <v>249241.0087969986</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231308.3387487723</v>
+        <v>231308.3387487725</v>
       </c>
       <c r="C6" t="n">
         <v>227798.6763156194</v>
       </c>
       <c r="D6" t="n">
-        <v>288374.9985022875</v>
+        <v>288374.9985022874</v>
       </c>
       <c r="E6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="F6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="G6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="H6" t="n">
-        <v>234407.807535533</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="I6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="J6" t="n">
-        <v>220406.5753952536</v>
+        <v>208188.5647752132</v>
       </c>
       <c r="K6" t="n">
-        <v>186150.8546019003</v>
+        <v>173932.8439818599</v>
       </c>
       <c r="L6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="M6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="N6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="O6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
       <c r="P6" t="n">
-        <v>234407.8075355329</v>
+        <v>222189.7969154925</v>
       </c>
     </row>
   </sheetData>
@@ -27423,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>155.5075405762956</v>
@@ -27435,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.3305891818766</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>356.7253377379643</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>186.4133429237194</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>152.1701667673546</v>
+        <v>159.2954515515985</v>
       </c>
     </row>
     <row r="4">
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>113.7342920886781</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.7230552786267</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,13 +27557,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>129.2885653617898</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>205.7961301618003</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27700,19 +27700,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.1773508072573</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>160.484111070505</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>327.7682962631404</v>
+        <v>289.3021568569044</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,19 +27982,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>65.39427820545913</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>81.03951947102121</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34704,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>51.35040662570938</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>51.35040662570936</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="N3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.35040662570938</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35023,16 +35023,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>43.28534947792188</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35731,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>99.81127712997396</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38028,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
